--- a/Max_Daily_Temps_Matam.xlsx
+++ b/Max_Daily_Temps_Matam.xlsx
@@ -8,15 +8,103 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E92A97-69B1-4652-8E99-617848149736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30217A5-AE4C-4807-8403-CB3E6DF60E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max_Temperatures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>xl(%P2%, headers=True).describe()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -84,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -92,6 +180,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +196,340 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">datetime</v>
+    <v t="s">TEMP</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>34</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>34.4</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>34</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>34.9</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>34</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>359</v>
+    <v t="r">5</v>
+    <v>34.5</v>
+    <v>360</v>
+    <v t="r">6</v>
+    <v>28.6</v>
+    <v>361</v>
+    <v t="r">7</v>
+    <v>29.2</v>
+    <v>362</v>
+    <v t="r">8</v>
+    <v>27.1</v>
+    <v>363</v>
+    <v t="r">9</v>
+    <v>35</v>
+  </a>
+  <a r="9" c="3">
+    <v t="s"/>
+    <v t="s">datetime</v>
+    <v t="s">TEMP</v>
+    <v t="s">count</v>
+    <v>364</v>
+    <v>364</v>
+    <v t="s">mean</v>
+    <v t="r">13</v>
+    <v>38.314560439560438</v>
+    <v t="s">min</v>
+    <v t="r">0</v>
+    <v>27.1</v>
+    <v t="s">25%</v>
+    <v t="r">14</v>
+    <v>36</v>
+    <v t="s">50%</v>
+    <v t="r">13</v>
+    <v>38.700000000000003</v>
+    <v t="s">75%</v>
+    <v t="r">15</v>
+    <v>41</v>
+    <v t="s">max</v>
+    <v t="r">9</v>
+    <v>48</v>
+    <v t="s">std</v>
+    <v t="r">16</v>
+    <v>3.7171750988277679</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45286</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45287</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45288</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45289</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45290</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      datetime  TEMP
+0   2023-01-01  34.0
+1   2023-01-02  34.4
+2   2023-01-03  34.0
+3   2023-01-04  34.9
+4   2023-01-05  34.0
+..         ...   ...
+359 2023-12-26  34.5
+360 2023-12-27  28.6
+361 2023-12-28  29.2
+362 2023-12-29  27.1
+363 2023-12-30  35.0
+...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>45108.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>45017.75</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>45199.25</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>7</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>17</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                  datetime        TEMP
+count                  364  364.000000
+mean   2023-07-01 12:00:00   38.314560
+min    2023-01-01 00:00:00   27.100000
+25%    2023-04-01 18:00:00   36.000000
+50%    2023-07-01 12:00:00   38.700000
+75%    2023-09-30 ...</v>
+    <v>18</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="8">
+    <spb s="0">
+      <v>364</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-service/anacondalogo.png</v>
+      <v>Python fourni par Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="2">
+      <v>3</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="3">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1"/>
+    <rSty dxfid="2">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,140 +817,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>44927</v>
       </c>
       <c r="B2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="e" cm="1" vm="1">
+        <f t="array" ref="D2">_xlfn._xlws.PY(0,1,A1:B365)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>44928</v>
       </c>
       <c r="B3">
         <v>34.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>44929</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>44930</v>
       </c>
       <c r="B5">
         <v>34.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>44931</v>
       </c>
       <c r="B6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" t="e" cm="1" vm="2">
+        <f t="array" ref="E6">_xlfn._xlws.PY(1,1,A1:B365)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>44932</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>44933</v>
       </c>
       <c r="B8">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>44934</v>
       </c>
       <c r="B9">
         <v>36.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>44935</v>
       </c>
       <c r="B10">
         <v>32.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>44936</v>
       </c>
       <c r="B11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>44937</v>
       </c>
       <c r="B12">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>44938</v>
       </c>
       <c r="B13">
         <v>31.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>44939</v>
       </c>
       <c r="B14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>44940</v>
       </c>
       <c r="B15">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>44941</v>
       </c>
       <c r="B16">
         <v>33</v>
@@ -535,7 +967,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>44942</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -543,7 +975,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>44943</v>
       </c>
       <c r="B18">
         <v>32.6</v>
@@ -551,7 +983,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>44944</v>
       </c>
       <c r="B19">
         <v>31.1</v>
@@ -559,7 +991,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>44945</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -567,7 +999,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>44946</v>
       </c>
       <c r="B21">
         <v>33.200000000000003</v>
@@ -575,7 +1007,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>44947</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -583,7 +1015,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>44948</v>
       </c>
       <c r="B23">
         <v>37</v>
@@ -591,7 +1023,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>44949</v>
       </c>
       <c r="B24">
         <v>38</v>
@@ -599,7 +1031,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>44950</v>
       </c>
       <c r="B25">
         <v>35</v>
@@ -607,7 +1039,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>44951</v>
       </c>
       <c r="B26">
         <v>32</v>
@@ -615,7 +1047,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>44952</v>
       </c>
       <c r="B27">
         <v>33</v>
@@ -623,7 +1055,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>44953</v>
       </c>
       <c r="B28">
         <v>34.200000000000003</v>
@@ -631,7 +1063,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>44954</v>
       </c>
       <c r="B29">
         <v>37</v>
@@ -639,7 +1071,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>44955</v>
       </c>
       <c r="B30">
         <v>38.200000000000003</v>
@@ -647,7 +1079,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>44956</v>
       </c>
       <c r="B31">
         <v>40</v>
@@ -655,7 +1087,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>44957</v>
       </c>
       <c r="B32">
         <v>37.1</v>
@@ -663,7 +1095,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>44958</v>
       </c>
       <c r="B33">
         <v>34.5</v>
@@ -671,7 +1103,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>44959</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -679,7 +1111,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>44960</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -687,7 +1119,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>44961</v>
       </c>
       <c r="B36">
         <v>34.299999999999997</v>
@@ -695,7 +1127,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>44962</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -703,7 +1135,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>44963</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -711,7 +1143,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>44964</v>
       </c>
       <c r="B39">
         <v>36</v>
@@ -719,7 +1151,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>44965</v>
       </c>
       <c r="B40">
         <v>34.5</v>
@@ -727,7 +1159,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>44966</v>
       </c>
       <c r="B41">
         <v>36.5</v>
@@ -735,7 +1167,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>44967</v>
       </c>
       <c r="B42">
         <v>35.200000000000003</v>
@@ -743,7 +1175,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>44968</v>
       </c>
       <c r="B43">
         <v>35</v>
@@ -751,7 +1183,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>44969</v>
       </c>
       <c r="B44">
         <v>33.799999999999997</v>
@@ -759,7 +1191,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>44970</v>
       </c>
       <c r="B45">
         <v>36.5</v>
@@ -767,7 +1199,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44971</v>
       </c>
       <c r="B46">
         <v>37</v>
@@ -775,7 +1207,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>44972</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -783,7 +1215,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>44973</v>
       </c>
       <c r="B48">
         <v>41</v>
@@ -791,7 +1223,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>44974</v>
       </c>
       <c r="B49">
         <v>40.700000000000003</v>
@@ -799,7 +1231,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>44975</v>
       </c>
       <c r="B50">
         <v>38.4</v>
@@ -807,7 +1239,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>44976</v>
       </c>
       <c r="B51">
         <v>38.700000000000003</v>
@@ -815,7 +1247,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>44977</v>
       </c>
       <c r="B52">
         <v>39</v>
@@ -823,7 +1255,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>44978</v>
       </c>
       <c r="B53">
         <v>37.5</v>
@@ -831,7 +1263,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>44979</v>
       </c>
       <c r="B54">
         <v>38</v>
@@ -839,7 +1271,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>44980</v>
       </c>
       <c r="B55">
         <v>38.799999999999997</v>
@@ -847,7 +1279,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>44981</v>
       </c>
       <c r="B56">
         <v>37</v>
@@ -855,7 +1287,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>44982</v>
       </c>
       <c r="B57">
         <v>39.299999999999997</v>
@@ -863,7 +1295,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>44983</v>
       </c>
       <c r="B58">
         <v>39.5</v>
@@ -871,7 +1303,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>44984</v>
       </c>
       <c r="B59">
         <v>42</v>
@@ -879,7 +1311,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>44985</v>
       </c>
       <c r="B60">
         <v>41</v>
@@ -887,7 +1319,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>61</v>
+        <v>44986</v>
       </c>
       <c r="B61">
         <v>40</v>
@@ -895,7 +1327,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>62</v>
+        <v>44987</v>
       </c>
       <c r="B62">
         <v>41</v>
@@ -903,7 +1335,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>63</v>
+        <v>44988</v>
       </c>
       <c r="B63">
         <v>40.6</v>
@@ -911,7 +1343,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>64</v>
+        <v>44989</v>
       </c>
       <c r="B64">
         <v>40</v>
@@ -919,7 +1351,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>65</v>
+        <v>44990</v>
       </c>
       <c r="B65">
         <v>41.2</v>
@@ -927,7 +1359,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>66</v>
+        <v>44991</v>
       </c>
       <c r="B66">
         <v>40.200000000000003</v>
@@ -935,7 +1367,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>67</v>
+        <v>44992</v>
       </c>
       <c r="B67">
         <v>39</v>
@@ -943,7 +1375,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>68</v>
+        <v>44993</v>
       </c>
       <c r="B68">
         <v>38</v>
@@ -951,7 +1383,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>69</v>
+        <v>44994</v>
       </c>
       <c r="B69">
         <v>36</v>
@@ -959,7 +1391,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>70</v>
+        <v>44995</v>
       </c>
       <c r="B70">
         <v>36.5</v>
@@ -967,7 +1399,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>71</v>
+        <v>44996</v>
       </c>
       <c r="B71">
         <v>36.299999999999997</v>
@@ -975,7 +1407,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>72</v>
+        <v>44997</v>
       </c>
       <c r="B72">
         <v>36.200000000000003</v>
@@ -983,7 +1415,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>73</v>
+        <v>44998</v>
       </c>
       <c r="B73">
         <v>39</v>
@@ -991,7 +1423,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>74</v>
+        <v>44999</v>
       </c>
       <c r="B74">
         <v>40.799999999999997</v>
@@ -999,7 +1431,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>75</v>
+        <v>45000</v>
       </c>
       <c r="B75">
         <v>41</v>
@@ -1007,7 +1439,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>76</v>
+        <v>45001</v>
       </c>
       <c r="B76">
         <v>40</v>
@@ -1015,7 +1447,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>77</v>
+        <v>45002</v>
       </c>
       <c r="B77">
         <v>41</v>
@@ -1023,7 +1455,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>78</v>
+        <v>45003</v>
       </c>
       <c r="B78">
         <v>40</v>
@@ -1031,7 +1463,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>79</v>
+        <v>45004</v>
       </c>
       <c r="B79">
         <v>40</v>
@@ -1039,7 +1471,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>80</v>
+        <v>45005</v>
       </c>
       <c r="B80">
         <v>42.4</v>
@@ -1047,7 +1479,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>81</v>
+        <v>45006</v>
       </c>
       <c r="B81">
         <v>42</v>
@@ -1055,7 +1487,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>82</v>
+        <v>45007</v>
       </c>
       <c r="B82">
         <v>42</v>
@@ -1063,7 +1495,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>83</v>
+        <v>45008</v>
       </c>
       <c r="B83">
         <v>42</v>
@@ -1071,7 +1503,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>84</v>
+        <v>45009</v>
       </c>
       <c r="B84">
         <v>41</v>
@@ -1079,7 +1511,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>85</v>
+        <v>45010</v>
       </c>
       <c r="B85">
         <v>41.2</v>
@@ -1087,7 +1519,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>86</v>
+        <v>45011</v>
       </c>
       <c r="B86">
         <v>43</v>
@@ -1095,7 +1527,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>87</v>
+        <v>45012</v>
       </c>
       <c r="B87">
         <v>45</v>
@@ -1103,7 +1535,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>88</v>
+        <v>45013</v>
       </c>
       <c r="B88">
         <v>44</v>
@@ -1111,7 +1543,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>89</v>
+        <v>45014</v>
       </c>
       <c r="B89">
         <v>42.4</v>
@@ -1119,7 +1551,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>90</v>
+        <v>45015</v>
       </c>
       <c r="B90">
         <v>44</v>
@@ -1127,7 +1559,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>91</v>
+        <v>45016</v>
       </c>
       <c r="B91">
         <v>42</v>
@@ -1135,7 +1567,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>92</v>
+        <v>45017</v>
       </c>
       <c r="B92">
         <v>41</v>
@@ -1143,7 +1575,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>93</v>
+        <v>45018</v>
       </c>
       <c r="B93">
         <v>41.3</v>
@@ -1151,7 +1583,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>94</v>
+        <v>45019</v>
       </c>
       <c r="B94">
         <v>42.2</v>
@@ -1159,7 +1591,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>95</v>
+        <v>45020</v>
       </c>
       <c r="B95">
         <v>41.2</v>
@@ -1167,7 +1599,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>96</v>
+        <v>45021</v>
       </c>
       <c r="B96">
         <v>42.1</v>
@@ -1175,7 +1607,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>97</v>
+        <v>45022</v>
       </c>
       <c r="B97">
         <v>43</v>
@@ -1183,7 +1615,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>98</v>
+        <v>45023</v>
       </c>
       <c r="B98">
         <v>43.2</v>
@@ -1191,7 +1623,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>99</v>
+        <v>45024</v>
       </c>
       <c r="B99">
         <v>42.2</v>
@@ -1199,7 +1631,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>100</v>
+        <v>45025</v>
       </c>
       <c r="B100">
         <v>42</v>
@@ -1207,7 +1639,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>101</v>
+        <v>45026</v>
       </c>
       <c r="B101">
         <v>43</v>
@@ -1215,7 +1647,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>102</v>
+        <v>45027</v>
       </c>
       <c r="B102">
         <v>44</v>
@@ -1223,7 +1655,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>103</v>
+        <v>45028</v>
       </c>
       <c r="B103">
         <v>43</v>
@@ -1231,7 +1663,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>104</v>
+        <v>45029</v>
       </c>
       <c r="B104">
         <v>42</v>
@@ -1239,7 +1671,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>105</v>
+        <v>45030</v>
       </c>
       <c r="B105">
         <v>42</v>
@@ -1247,7 +1679,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>106</v>
+        <v>45031</v>
       </c>
       <c r="B106">
         <v>41.6</v>
@@ -1255,7 +1687,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>107</v>
+        <v>45032</v>
       </c>
       <c r="B107">
         <v>43.2</v>
@@ -1263,7 +1695,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>108</v>
+        <v>45033</v>
       </c>
       <c r="B108">
         <v>44</v>
@@ -1271,7 +1703,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>109</v>
+        <v>45034</v>
       </c>
       <c r="B109">
         <v>45</v>
@@ -1279,7 +1711,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>110</v>
+        <v>45035</v>
       </c>
       <c r="B110">
         <v>40.4</v>
@@ -1287,7 +1719,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>111</v>
+        <v>45036</v>
       </c>
       <c r="B111">
         <v>39</v>
@@ -1295,7 +1727,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>112</v>
+        <v>45037</v>
       </c>
       <c r="B112">
         <v>42</v>
@@ -1303,7 +1735,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>113</v>
+        <v>45038</v>
       </c>
       <c r="B113">
         <v>42</v>
@@ -1311,7 +1743,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>114</v>
+        <v>45039</v>
       </c>
       <c r="B114">
         <v>41</v>
@@ -1319,7 +1751,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>115</v>
+        <v>45040</v>
       </c>
       <c r="B115">
         <v>42.1</v>
@@ -1327,7 +1759,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>116</v>
+        <v>45041</v>
       </c>
       <c r="B116">
         <v>41.2</v>
@@ -1335,7 +1767,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>117</v>
+        <v>45042</v>
       </c>
       <c r="B117">
         <v>42</v>
@@ -1343,7 +1775,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>118</v>
+        <v>45043</v>
       </c>
       <c r="B118">
         <v>42</v>
@@ -1351,7 +1783,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>119</v>
+        <v>45044</v>
       </c>
       <c r="B119">
         <v>40</v>
@@ -1359,7 +1791,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>120</v>
+        <v>45045</v>
       </c>
       <c r="B120">
         <v>40</v>
@@ -1367,7 +1799,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>121</v>
+        <v>45046</v>
       </c>
       <c r="B121">
         <v>43.4</v>
@@ -1375,7 +1807,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>122</v>
+        <v>45047</v>
       </c>
       <c r="B122">
         <v>42</v>
@@ -1383,7 +1815,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>123</v>
+        <v>45048</v>
       </c>
       <c r="B123">
         <v>41</v>
@@ -1391,7 +1823,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>124</v>
+        <v>45049</v>
       </c>
       <c r="B124">
         <v>42</v>
@@ -1399,7 +1831,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>125</v>
+        <v>45050</v>
       </c>
       <c r="B125">
         <v>42.4</v>
@@ -1407,7 +1839,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>126</v>
+        <v>45051</v>
       </c>
       <c r="B126">
         <v>44</v>
@@ -1415,7 +1847,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>127</v>
+        <v>45052</v>
       </c>
       <c r="B127">
         <v>44</v>
@@ -1423,7 +1855,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>128</v>
+        <v>45053</v>
       </c>
       <c r="B128">
         <v>46.5</v>
@@ -1431,7 +1863,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>129</v>
+        <v>45054</v>
       </c>
       <c r="B129">
         <v>43</v>
@@ -1439,7 +1871,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>130</v>
+        <v>45055</v>
       </c>
       <c r="B130">
         <v>45</v>
@@ -1447,7 +1879,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>131</v>
+        <v>45056</v>
       </c>
       <c r="B131">
         <v>44.8</v>
@@ -1455,7 +1887,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>132</v>
+        <v>45057</v>
       </c>
       <c r="B132">
         <v>39</v>
@@ -1463,7 +1895,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>133</v>
+        <v>45058</v>
       </c>
       <c r="B133">
         <v>45.4</v>
@@ -1471,7 +1903,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>134</v>
+        <v>45059</v>
       </c>
       <c r="B134">
         <v>46.4</v>
@@ -1479,7 +1911,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>135</v>
+        <v>45060</v>
       </c>
       <c r="B135">
         <v>46</v>
@@ -1487,7 +1919,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>136</v>
+        <v>45061</v>
       </c>
       <c r="B136">
         <v>45</v>
@@ -1495,7 +1927,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>137</v>
+        <v>45062</v>
       </c>
       <c r="B137">
         <v>48</v>
@@ -1503,7 +1935,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>138</v>
+        <v>45063</v>
       </c>
       <c r="B138">
         <v>47.2</v>
@@ -1511,7 +1943,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>139</v>
+        <v>45064</v>
       </c>
       <c r="B139">
         <v>44</v>
@@ -1519,7 +1951,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>140</v>
+        <v>45065</v>
       </c>
       <c r="B140">
         <v>42</v>
@@ -1527,7 +1959,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>141</v>
+        <v>45066</v>
       </c>
       <c r="B141">
         <v>40</v>
@@ -1535,7 +1967,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>142</v>
+        <v>45067</v>
       </c>
       <c r="B142">
         <v>40</v>
@@ -1543,7 +1975,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>143</v>
+        <v>45068</v>
       </c>
       <c r="B143">
         <v>40</v>
@@ -1551,7 +1983,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>144</v>
+        <v>45069</v>
       </c>
       <c r="B144">
         <v>42</v>
@@ -1559,7 +1991,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>145</v>
+        <v>45070</v>
       </c>
       <c r="B145">
         <v>41.6</v>
@@ -1567,7 +1999,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>146</v>
+        <v>45071</v>
       </c>
       <c r="B146">
         <v>45.2</v>
@@ -1575,7 +2007,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>147</v>
+        <v>45072</v>
       </c>
       <c r="B147">
         <v>45</v>
@@ -1583,7 +2015,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>148</v>
+        <v>45073</v>
       </c>
       <c r="B148">
         <v>44</v>
@@ -1591,7 +2023,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>149</v>
+        <v>45074</v>
       </c>
       <c r="B149">
         <v>41</v>
@@ -1599,7 +2031,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>150</v>
+        <v>45075</v>
       </c>
       <c r="B150">
         <v>43.2</v>
@@ -1607,7 +2039,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>151</v>
+        <v>45076</v>
       </c>
       <c r="B151">
         <v>42</v>
@@ -1615,7 +2047,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>152</v>
+        <v>45077</v>
       </c>
       <c r="B152">
         <v>43</v>
@@ -1623,7 +2055,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>153</v>
+        <v>45078</v>
       </c>
       <c r="B153">
         <v>42.7</v>
@@ -1631,7 +2063,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>154</v>
+        <v>45079</v>
       </c>
       <c r="B154">
         <v>43.5</v>
@@ -1639,7 +2071,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>155</v>
+        <v>45080</v>
       </c>
       <c r="B155">
         <v>45.7</v>
@@ -1647,7 +2079,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>156</v>
+        <v>45081</v>
       </c>
       <c r="B156">
         <v>41.2</v>
@@ -1655,7 +2087,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>157</v>
+        <v>45082</v>
       </c>
       <c r="B157">
         <v>41.5</v>
@@ -1663,7 +2095,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>158</v>
+        <v>45083</v>
       </c>
       <c r="B158">
         <v>44.5</v>
@@ -1671,7 +2103,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>159</v>
+        <v>45084</v>
       </c>
       <c r="B159">
         <v>44</v>
@@ -1679,7 +2111,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>160</v>
+        <v>45085</v>
       </c>
       <c r="B160">
         <v>43</v>
@@ -1687,7 +2119,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>161</v>
+        <v>45086</v>
       </c>
       <c r="B161">
         <v>43.6</v>
@@ -1695,7 +2127,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>162</v>
+        <v>45087</v>
       </c>
       <c r="B162">
         <v>40.200000000000003</v>
@@ -1703,7 +2135,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>163</v>
+        <v>45088</v>
       </c>
       <c r="B163">
         <v>39.5</v>
@@ -1711,7 +2143,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>164</v>
+        <v>45089</v>
       </c>
       <c r="B164">
         <v>39.5</v>
@@ -1719,7 +2151,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>165</v>
+        <v>45090</v>
       </c>
       <c r="B165">
         <v>40.700000000000003</v>
@@ -1727,7 +2159,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>166</v>
+        <v>45091</v>
       </c>
       <c r="B166">
         <v>44.5</v>
@@ -1735,7 +2167,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>167</v>
+        <v>45092</v>
       </c>
       <c r="B167">
         <v>40</v>
@@ -1743,7 +2175,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>168</v>
+        <v>45093</v>
       </c>
       <c r="B168">
         <v>39</v>
@@ -1751,7 +2183,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>169</v>
+        <v>45094</v>
       </c>
       <c r="B169">
         <v>40.5</v>
@@ -1759,7 +2191,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>170</v>
+        <v>45095</v>
       </c>
       <c r="B170">
         <v>40.4</v>
@@ -1767,7 +2199,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>171</v>
+        <v>45096</v>
       </c>
       <c r="B171">
         <v>42</v>
@@ -1775,7 +2207,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>172</v>
+        <v>45097</v>
       </c>
       <c r="B172">
         <v>44</v>
@@ -1783,7 +2215,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>173</v>
+        <v>45098</v>
       </c>
       <c r="B173">
         <v>41.4</v>
@@ -1791,7 +2223,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>174</v>
+        <v>45099</v>
       </c>
       <c r="B174">
         <v>38</v>
@@ -1799,7 +2231,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>175</v>
+        <v>45100</v>
       </c>
       <c r="B175">
         <v>38</v>
@@ -1807,7 +2239,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>176</v>
+        <v>45101</v>
       </c>
       <c r="B176">
         <v>38.5</v>
@@ -1815,7 +2247,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>177</v>
+        <v>45102</v>
       </c>
       <c r="B177">
         <v>39.299999999999997</v>
@@ -1823,7 +2255,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>178</v>
+        <v>45103</v>
       </c>
       <c r="B178">
         <v>40.5</v>
@@ -1831,7 +2263,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>179</v>
+        <v>45104</v>
       </c>
       <c r="B179">
         <v>41</v>
@@ -1839,7 +2271,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>180</v>
+        <v>45105</v>
       </c>
       <c r="B180">
         <v>40</v>
@@ -1847,7 +2279,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>181</v>
+        <v>45106</v>
       </c>
       <c r="B181">
         <v>41.1</v>
@@ -1855,7 +2287,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>182</v>
+        <v>45107</v>
       </c>
       <c r="B182">
         <v>37.1</v>
@@ -1863,7 +2295,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>183</v>
+        <v>45108</v>
       </c>
       <c r="B183">
         <v>38</v>
@@ -1871,7 +2303,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>184</v>
+        <v>45109</v>
       </c>
       <c r="B184">
         <v>39.4</v>
@@ -1879,7 +2311,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>185</v>
+        <v>45110</v>
       </c>
       <c r="B185">
         <v>39</v>
@@ -1887,7 +2319,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>186</v>
+        <v>45111</v>
       </c>
       <c r="B186">
         <v>38</v>
@@ -1895,7 +2327,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>187</v>
+        <v>45112</v>
       </c>
       <c r="B187">
         <v>38</v>
@@ -1903,7 +2335,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>188</v>
+        <v>45113</v>
       </c>
       <c r="B188">
         <v>40</v>
@@ -1911,7 +2343,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>189</v>
+        <v>45114</v>
       </c>
       <c r="B189">
         <v>36</v>
@@ -1919,7 +2351,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>190</v>
+        <v>45115</v>
       </c>
       <c r="B190">
         <v>39</v>
@@ -1927,7 +2359,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>191</v>
+        <v>45116</v>
       </c>
       <c r="B191">
         <v>37.799999999999997</v>
@@ -1935,7 +2367,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>192</v>
+        <v>45117</v>
       </c>
       <c r="B192">
         <v>37.1</v>
@@ -1943,7 +2375,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>193</v>
+        <v>45118</v>
       </c>
       <c r="B193">
         <v>39</v>
@@ -1951,7 +2383,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>194</v>
+        <v>45119</v>
       </c>
       <c r="B194">
         <v>39.4</v>
@@ -1959,7 +2391,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>195</v>
+        <v>45120</v>
       </c>
       <c r="B195">
         <v>36.299999999999997</v>
@@ -1967,7 +2399,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>196</v>
+        <v>45121</v>
       </c>
       <c r="B196">
         <v>39.6</v>
@@ -1975,7 +2407,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>197</v>
+        <v>45122</v>
       </c>
       <c r="B197">
         <v>40</v>
@@ -1983,7 +2415,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>198</v>
+        <v>45123</v>
       </c>
       <c r="B198">
         <v>33.5</v>
@@ -1991,7 +2423,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>199</v>
+        <v>45124</v>
       </c>
       <c r="B199">
         <v>37</v>
@@ -1999,7 +2431,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>200</v>
+        <v>45125</v>
       </c>
       <c r="B200">
         <v>39</v>
@@ -2007,7 +2439,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>201</v>
+        <v>45126</v>
       </c>
       <c r="B201">
         <v>40</v>
@@ -2015,7 +2447,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>202</v>
+        <v>45127</v>
       </c>
       <c r="B202">
         <v>33.4</v>
@@ -2023,7 +2455,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>203</v>
+        <v>45128</v>
       </c>
       <c r="B203">
         <v>38</v>
@@ -2031,7 +2463,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>204</v>
+        <v>45129</v>
       </c>
       <c r="B204">
         <v>35</v>
@@ -2039,7 +2471,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>205</v>
+        <v>45130</v>
       </c>
       <c r="B205">
         <v>39</v>
@@ -2047,7 +2479,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>206</v>
+        <v>45131</v>
       </c>
       <c r="B206">
         <v>34.200000000000003</v>
@@ -2055,7 +2487,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>207</v>
+        <v>45132</v>
       </c>
       <c r="B207">
         <v>37.799999999999997</v>
@@ -2063,7 +2495,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>208</v>
+        <v>45133</v>
       </c>
       <c r="B208">
         <v>38</v>
@@ -2071,7 +2503,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>209</v>
+        <v>45134</v>
       </c>
       <c r="B209">
         <v>37</v>
@@ -2079,7 +2511,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>210</v>
+        <v>45135</v>
       </c>
       <c r="B210">
         <v>35</v>
@@ -2087,7 +2519,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>211</v>
+        <v>45136</v>
       </c>
       <c r="B211">
         <v>35.200000000000003</v>
@@ -2095,7 +2527,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>212</v>
+        <v>45137</v>
       </c>
       <c r="B212">
         <v>31.3</v>
@@ -2103,7 +2535,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>213</v>
+        <v>45138</v>
       </c>
       <c r="B213">
         <v>37</v>
@@ -2111,7 +2543,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>214</v>
+        <v>45139</v>
       </c>
       <c r="B214">
         <v>36</v>
@@ -2119,7 +2551,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>215</v>
+        <v>45140</v>
       </c>
       <c r="B215">
         <v>40</v>
@@ -2127,7 +2559,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>216</v>
+        <v>45141</v>
       </c>
       <c r="B216">
         <v>38</v>
@@ -2135,7 +2567,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>217</v>
+        <v>45142</v>
       </c>
       <c r="B217">
         <v>38</v>
@@ -2143,7 +2575,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>218</v>
+        <v>45143</v>
       </c>
       <c r="B218">
         <v>38</v>
@@ -2151,7 +2583,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>219</v>
+        <v>45144</v>
       </c>
       <c r="B219">
         <v>33.6</v>
@@ -2159,7 +2591,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>220</v>
+        <v>45145</v>
       </c>
       <c r="B220">
         <v>36.200000000000003</v>
@@ -2167,7 +2599,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>221</v>
+        <v>45146</v>
       </c>
       <c r="B221">
         <v>37.4</v>
@@ -2175,7 +2607,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>222</v>
+        <v>45147</v>
       </c>
       <c r="B222">
         <v>40</v>
@@ -2183,7 +2615,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>223</v>
+        <v>45148</v>
       </c>
       <c r="B223">
         <v>36.200000000000003</v>
@@ -2191,7 +2623,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>224</v>
+        <v>45149</v>
       </c>
       <c r="B224">
         <v>38</v>
@@ -2199,7 +2631,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>225</v>
+        <v>45150</v>
       </c>
       <c r="B225">
         <v>36</v>
@@ -2207,7 +2639,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>226</v>
+        <v>45151</v>
       </c>
       <c r="B226">
         <v>36</v>
@@ -2215,7 +2647,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>227</v>
+        <v>45152</v>
       </c>
       <c r="B227">
         <v>36.6</v>
@@ -2223,7 +2655,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>228</v>
+        <v>45153</v>
       </c>
       <c r="B228">
         <v>38</v>
@@ -2231,7 +2663,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>229</v>
+        <v>45154</v>
       </c>
       <c r="B229">
         <v>30.8</v>
@@ -2239,7 +2671,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>230</v>
+        <v>45155</v>
       </c>
       <c r="B230">
         <v>32</v>
@@ -2247,7 +2679,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>231</v>
+        <v>45156</v>
       </c>
       <c r="B231">
         <v>33</v>
@@ -2255,7 +2687,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>232</v>
+        <v>45157</v>
       </c>
       <c r="B232">
         <v>32</v>
@@ -2263,7 +2695,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>233</v>
+        <v>45158</v>
       </c>
       <c r="B233">
         <v>34.6</v>
@@ -2271,7 +2703,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>234</v>
+        <v>45159</v>
       </c>
       <c r="B234">
         <v>34</v>
@@ -2279,7 +2711,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>235</v>
+        <v>45160</v>
       </c>
       <c r="B235">
         <v>35</v>
@@ -2287,7 +2719,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>236</v>
+        <v>45161</v>
       </c>
       <c r="B236">
         <v>30.5</v>
@@ -2295,7 +2727,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>237</v>
+        <v>45162</v>
       </c>
       <c r="B237">
         <v>28</v>
@@ -2303,7 +2735,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>238</v>
+        <v>45163</v>
       </c>
       <c r="B238">
         <v>34</v>
@@ -2311,7 +2743,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>239</v>
+        <v>45164</v>
       </c>
       <c r="B239">
         <v>36</v>
@@ -2319,7 +2751,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>240</v>
+        <v>45165</v>
       </c>
       <c r="B240">
         <v>36</v>
@@ -2327,7 +2759,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>241</v>
+        <v>45166</v>
       </c>
       <c r="B241">
         <v>33.6</v>
@@ -2335,7 +2767,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>242</v>
+        <v>45167</v>
       </c>
       <c r="B242">
         <v>32</v>
@@ -2343,7 +2775,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>243</v>
+        <v>45168</v>
       </c>
       <c r="B243">
         <v>36</v>
@@ -2351,7 +2783,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>244</v>
+        <v>45169</v>
       </c>
       <c r="B244">
         <v>33</v>
@@ -2359,7 +2791,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>245</v>
+        <v>45170</v>
       </c>
       <c r="B245">
         <v>33.200000000000003</v>
@@ -2367,7 +2799,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>246</v>
+        <v>45171</v>
       </c>
       <c r="B246">
         <v>34.799999999999997</v>
@@ -2375,7 +2807,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>247</v>
+        <v>45172</v>
       </c>
       <c r="B247">
         <v>31.5</v>
@@ -2383,7 +2815,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>248</v>
+        <v>45173</v>
       </c>
       <c r="B248">
         <v>36.200000000000003</v>
@@ -2391,7 +2823,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>249</v>
+        <v>45174</v>
       </c>
       <c r="B249">
         <v>38</v>
@@ -2399,7 +2831,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>250</v>
+        <v>45175</v>
       </c>
       <c r="B250">
         <v>35</v>
@@ -2407,7 +2839,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>251</v>
+        <v>45176</v>
       </c>
       <c r="B251">
         <v>34.5</v>
@@ -2415,7 +2847,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>252</v>
+        <v>45177</v>
       </c>
       <c r="B252">
         <v>37</v>
@@ -2423,7 +2855,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>253</v>
+        <v>45178</v>
       </c>
       <c r="B253">
         <v>31</v>
@@ -2431,7 +2863,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>254</v>
+        <v>45179</v>
       </c>
       <c r="B254">
         <v>34</v>
@@ -2439,7 +2871,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>255</v>
+        <v>45180</v>
       </c>
       <c r="B255">
         <v>37</v>
@@ -2447,7 +2879,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>256</v>
+        <v>45181</v>
       </c>
       <c r="B256">
         <v>29.7</v>
@@ -2455,7 +2887,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>257</v>
+        <v>45182</v>
       </c>
       <c r="B257">
         <v>35.200000000000003</v>
@@ -2463,7 +2895,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>258</v>
+        <v>45183</v>
       </c>
       <c r="B258">
         <v>29.6</v>
@@ -2471,7 +2903,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>259</v>
+        <v>45184</v>
       </c>
       <c r="B259">
         <v>34</v>
@@ -2479,7 +2911,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>260</v>
+        <v>45185</v>
       </c>
       <c r="B260">
         <v>34.5</v>
@@ -2487,7 +2919,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>261</v>
+        <v>45186</v>
       </c>
       <c r="B261">
         <v>34</v>
@@ -2495,7 +2927,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>262</v>
+        <v>45187</v>
       </c>
       <c r="B262">
         <v>36</v>
@@ -2503,7 +2935,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>263</v>
+        <v>45188</v>
       </c>
       <c r="B263">
         <v>36</v>
@@ -2511,7 +2943,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>264</v>
+        <v>45189</v>
       </c>
       <c r="B264">
         <v>37.4</v>
@@ -2519,7 +2951,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>265</v>
+        <v>45190</v>
       </c>
       <c r="B265">
         <v>38.4</v>
@@ -2527,7 +2959,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>266</v>
+        <v>45191</v>
       </c>
       <c r="B266">
         <v>38.4</v>
@@ -2535,7 +2967,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>267</v>
+        <v>45192</v>
       </c>
       <c r="B267">
         <v>36.700000000000003</v>
@@ -2543,7 +2975,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>268</v>
+        <v>45193</v>
       </c>
       <c r="B268">
         <v>38</v>
@@ -2551,7 +2983,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>269</v>
+        <v>45194</v>
       </c>
       <c r="B269">
         <v>40</v>
@@ -2559,7 +2991,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>270</v>
+        <v>45195</v>
       </c>
       <c r="B270">
         <v>36.200000000000003</v>
@@ -2567,7 +2999,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>271</v>
+        <v>45196</v>
       </c>
       <c r="B271">
         <v>37.5</v>
@@ -2575,7 +3007,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>272</v>
+        <v>45197</v>
       </c>
       <c r="B272">
         <v>38</v>
@@ -2583,7 +3015,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>273</v>
+        <v>45198</v>
       </c>
       <c r="B273">
         <v>36.6</v>
@@ -2591,7 +3023,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>274</v>
+        <v>45199</v>
       </c>
       <c r="B274">
         <v>32</v>
@@ -2599,7 +3031,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
-        <v>275</v>
+        <v>45200</v>
       </c>
       <c r="B275">
         <v>34.200000000000003</v>
@@ -2607,7 +3039,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>276</v>
+        <v>45201</v>
       </c>
       <c r="B276">
         <v>36</v>
@@ -2615,7 +3047,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>277</v>
+        <v>45202</v>
       </c>
       <c r="B277">
         <v>40</v>
@@ -2623,7 +3055,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>278</v>
+        <v>45203</v>
       </c>
       <c r="B278">
         <v>40</v>
@@ -2631,7 +3063,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>279</v>
+        <v>45204</v>
       </c>
       <c r="B279">
         <v>39</v>
@@ -2639,7 +3071,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>280</v>
+        <v>45205</v>
       </c>
       <c r="B280">
         <v>40</v>
@@ -2647,7 +3079,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>281</v>
+        <v>45206</v>
       </c>
       <c r="B281">
         <v>40</v>
@@ -2655,7 +3087,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>282</v>
+        <v>45207</v>
       </c>
       <c r="B282">
         <v>39</v>
@@ -2663,7 +3095,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
-        <v>283</v>
+        <v>45208</v>
       </c>
       <c r="B283">
         <v>40</v>
@@ -2671,7 +3103,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>284</v>
+        <v>45209</v>
       </c>
       <c r="B284">
         <v>41.2</v>
@@ -2679,7 +3111,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
-        <v>285</v>
+        <v>45210</v>
       </c>
       <c r="B285">
         <v>40.1</v>
@@ -2687,7 +3119,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>286</v>
+        <v>45211</v>
       </c>
       <c r="B286">
         <v>41</v>
@@ -2695,7 +3127,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
-        <v>287</v>
+        <v>45212</v>
       </c>
       <c r="B287">
         <v>36.4</v>
@@ -2703,7 +3135,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>288</v>
+        <v>45213</v>
       </c>
       <c r="B288">
         <v>38.700000000000003</v>
@@ -2711,7 +3143,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
-        <v>289</v>
+        <v>45214</v>
       </c>
       <c r="B289">
         <v>39.1</v>
@@ -2719,7 +3151,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>290</v>
+        <v>45215</v>
       </c>
       <c r="B290">
         <v>40</v>
@@ -2727,7 +3159,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>291</v>
+        <v>45216</v>
       </c>
       <c r="B291">
         <v>40</v>
@@ -2735,7 +3167,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>292</v>
+        <v>45217</v>
       </c>
       <c r="B292">
         <v>38.299999999999997</v>
@@ -2743,7 +3175,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
-        <v>293</v>
+        <v>45218</v>
       </c>
       <c r="B293">
         <v>40.200000000000003</v>
@@ -2751,7 +3183,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>294</v>
+        <v>45219</v>
       </c>
       <c r="B294">
         <v>39</v>
@@ -2759,7 +3191,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
-        <v>295</v>
+        <v>45220</v>
       </c>
       <c r="B295">
         <v>39</v>
@@ -2767,7 +3199,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
-        <v>296</v>
+        <v>45221</v>
       </c>
       <c r="B296">
         <v>39.4</v>
@@ -2775,7 +3207,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
-        <v>297</v>
+        <v>45222</v>
       </c>
       <c r="B297">
         <v>40</v>
@@ -2783,7 +3215,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
-        <v>298</v>
+        <v>45223</v>
       </c>
       <c r="B298">
         <v>40</v>
@@ -2791,7 +3223,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
-        <v>299</v>
+        <v>45224</v>
       </c>
       <c r="B299">
         <v>38.200000000000003</v>
@@ -2799,7 +3231,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
-        <v>300</v>
+        <v>45225</v>
       </c>
       <c r="B300">
         <v>40</v>
@@ -2807,7 +3239,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
-        <v>301</v>
+        <v>45226</v>
       </c>
       <c r="B301">
         <v>41.1</v>
@@ -2815,7 +3247,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
-        <v>302</v>
+        <v>45227</v>
       </c>
       <c r="B302">
         <v>40.6</v>
@@ -2823,7 +3255,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
-        <v>303</v>
+        <v>45228</v>
       </c>
       <c r="B303">
         <v>40.1</v>
@@ -2831,7 +3263,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
-        <v>304</v>
+        <v>45229</v>
       </c>
       <c r="B304">
         <v>40</v>
@@ -2839,7 +3271,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
-        <v>305</v>
+        <v>45230</v>
       </c>
       <c r="B305">
         <v>41.2</v>
@@ -2847,7 +3279,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
-        <v>306</v>
+        <v>45231</v>
       </c>
       <c r="B306">
         <v>39.700000000000003</v>
@@ -2855,7 +3287,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
-        <v>307</v>
+        <v>45232</v>
       </c>
       <c r="B307">
         <v>38.4</v>
@@ -2863,7 +3295,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
-        <v>308</v>
+        <v>45233</v>
       </c>
       <c r="B308">
         <v>40.1</v>
@@ -2871,7 +3303,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
-        <v>309</v>
+        <v>45234</v>
       </c>
       <c r="B309">
         <v>40.5</v>
@@ -2879,7 +3311,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
-        <v>310</v>
+        <v>45235</v>
       </c>
       <c r="B310">
         <v>41</v>
@@ -2887,7 +3319,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
-        <v>311</v>
+        <v>45236</v>
       </c>
       <c r="B311">
         <v>40.299999999999997</v>
@@ -2895,7 +3327,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
-        <v>312</v>
+        <v>45237</v>
       </c>
       <c r="B312">
         <v>38</v>
@@ -2903,7 +3335,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
-        <v>313</v>
+        <v>45238</v>
       </c>
       <c r="B313">
         <v>39</v>
@@ -2911,7 +3343,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
-        <v>314</v>
+        <v>45239</v>
       </c>
       <c r="B314">
         <v>38</v>
@@ -2919,7 +3351,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
-        <v>315</v>
+        <v>45240</v>
       </c>
       <c r="B315">
         <v>37.799999999999997</v>
@@ -2927,7 +3359,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
-        <v>316</v>
+        <v>45241</v>
       </c>
       <c r="B316">
         <v>38</v>
@@ -2935,7 +3367,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
-        <v>317</v>
+        <v>45242</v>
       </c>
       <c r="B317">
         <v>41</v>
@@ -2943,7 +3375,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
-        <v>318</v>
+        <v>45243</v>
       </c>
       <c r="B318">
         <v>41</v>
@@ -2951,7 +3383,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
-        <v>319</v>
+        <v>45244</v>
       </c>
       <c r="B319">
         <v>41</v>
@@ -2959,7 +3391,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
-        <v>320</v>
+        <v>45245</v>
       </c>
       <c r="B320">
         <v>40</v>
@@ -2967,7 +3399,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>321</v>
+        <v>45246</v>
       </c>
       <c r="B321">
         <v>39.799999999999997</v>
@@ -2975,7 +3407,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
-        <v>322</v>
+        <v>45247</v>
       </c>
       <c r="B322">
         <v>38</v>
@@ -2983,7 +3415,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
-        <v>323</v>
+        <v>45248</v>
       </c>
       <c r="B323">
         <v>37</v>
@@ -2991,7 +3423,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
-        <v>324</v>
+        <v>45249</v>
       </c>
       <c r="B324">
         <v>33.200000000000003</v>
@@ -2999,7 +3431,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>325</v>
+        <v>45250</v>
       </c>
       <c r="B325">
         <v>35</v>
@@ -3007,7 +3439,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
-        <v>326</v>
+        <v>45251</v>
       </c>
       <c r="B326">
         <v>33</v>
@@ -3015,7 +3447,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
-        <v>327</v>
+        <v>45252</v>
       </c>
       <c r="B327">
         <v>32</v>
@@ -3023,7 +3455,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
-        <v>328</v>
+        <v>45253</v>
       </c>
       <c r="B328">
         <v>36.4</v>
@@ -3031,7 +3463,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
-        <v>329</v>
+        <v>45254</v>
       </c>
       <c r="B329">
         <v>36.299999999999997</v>
@@ -3039,7 +3471,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
-        <v>330</v>
+        <v>45255</v>
       </c>
       <c r="B330">
         <v>38</v>
@@ -3047,7 +3479,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
-        <v>331</v>
+        <v>45256</v>
       </c>
       <c r="B331">
         <v>36.5</v>
@@ -3055,7 +3487,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
-        <v>332</v>
+        <v>45257</v>
       </c>
       <c r="B332">
         <v>36</v>
@@ -3063,7 +3495,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
-        <v>333</v>
+        <v>45258</v>
       </c>
       <c r="B333">
         <v>30</v>
@@ -3071,7 +3503,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
-        <v>334</v>
+        <v>45259</v>
       </c>
       <c r="B334">
         <v>32.299999999999997</v>
@@ -3079,7 +3511,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
-        <v>335</v>
+        <v>45260</v>
       </c>
       <c r="B335">
         <v>38.5</v>
@@ -3087,7 +3519,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
-        <v>336</v>
+        <v>45261</v>
       </c>
       <c r="B336">
         <v>38.200000000000003</v>
@@ -3095,7 +3527,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
-        <v>337</v>
+        <v>45262</v>
       </c>
       <c r="B337">
         <v>36.5</v>
@@ -3103,7 +3535,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
-        <v>338</v>
+        <v>45263</v>
       </c>
       <c r="B338">
         <v>36.5</v>
@@ -3111,7 +3543,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
-        <v>339</v>
+        <v>45264</v>
       </c>
       <c r="B339">
         <v>37</v>
@@ -3119,7 +3551,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
-        <v>340</v>
+        <v>45265</v>
       </c>
       <c r="B340">
         <v>39</v>
@@ -3127,7 +3559,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
-        <v>341</v>
+        <v>45266</v>
       </c>
       <c r="B341">
         <v>40.200000000000003</v>
@@ -3135,7 +3567,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
-        <v>342</v>
+        <v>45267</v>
       </c>
       <c r="B342">
         <v>41.2</v>
@@ -3143,7 +3575,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
-        <v>343</v>
+        <v>45268</v>
       </c>
       <c r="B343">
         <v>39.5</v>
@@ -3151,7 +3583,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
-        <v>344</v>
+        <v>45269</v>
       </c>
       <c r="B344">
         <v>39</v>
@@ -3159,7 +3591,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
-        <v>345</v>
+        <v>45270</v>
       </c>
       <c r="B345">
         <v>39.9</v>
@@ -3167,7 +3599,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
-        <v>346</v>
+        <v>45271</v>
       </c>
       <c r="B346">
         <v>38</v>
@@ -3175,7 +3607,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
-        <v>347</v>
+        <v>45272</v>
       </c>
       <c r="B347">
         <v>37.6</v>
@@ -3183,7 +3615,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
-        <v>348</v>
+        <v>45273</v>
       </c>
       <c r="B348">
         <v>38.200000000000003</v>
@@ -3191,7 +3623,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
-        <v>349</v>
+        <v>45274</v>
       </c>
       <c r="B349">
         <v>38.799999999999997</v>
@@ -3199,7 +3631,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
-        <v>350</v>
+        <v>45275</v>
       </c>
       <c r="B350">
         <v>39</v>
@@ -3207,7 +3639,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
-        <v>351</v>
+        <v>45276</v>
       </c>
       <c r="B351">
         <v>37.799999999999997</v>
@@ -3215,7 +3647,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
-        <v>352</v>
+        <v>45277</v>
       </c>
       <c r="B352">
         <v>37.6</v>
@@ -3223,7 +3655,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
-        <v>353</v>
+        <v>45278</v>
       </c>
       <c r="B353">
         <v>37</v>
@@ -3231,7 +3663,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
-        <v>354</v>
+        <v>45279</v>
       </c>
       <c r="B354">
         <v>36.200000000000003</v>
@@ -3239,7 +3671,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
-        <v>355</v>
+        <v>45280</v>
       </c>
       <c r="B355">
         <v>35.799999999999997</v>
@@ -3247,7 +3679,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
-        <v>356</v>
+        <v>45281</v>
       </c>
       <c r="B356">
         <v>34</v>
@@ -3255,7 +3687,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
-        <v>357</v>
+        <v>45282</v>
       </c>
       <c r="B357">
         <v>33</v>
@@ -3263,7 +3695,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
-        <v>358</v>
+        <v>45283</v>
       </c>
       <c r="B358">
         <v>33.5</v>
@@ -3271,7 +3703,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
-        <v>359</v>
+        <v>45284</v>
       </c>
       <c r="B359">
         <v>34.5</v>
@@ -3279,7 +3711,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
-        <v>360</v>
+        <v>45285</v>
       </c>
       <c r="B360">
         <v>35</v>
@@ -3287,7 +3719,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
-        <v>361</v>
+        <v>45286</v>
       </c>
       <c r="B361">
         <v>34.5</v>
@@ -3295,7 +3727,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
-        <v>362</v>
+        <v>45287</v>
       </c>
       <c r="B362">
         <v>28.6</v>
@@ -3303,7 +3735,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
-        <v>363</v>
+        <v>45288</v>
       </c>
       <c r="B363">
         <v>29.2</v>
@@ -3311,7 +3743,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
-        <v>364</v>
+        <v>45289</v>
       </c>
       <c r="B364">
         <v>27.1</v>
@@ -3319,7 +3751,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
-        <v>365</v>
+        <v>45290</v>
       </c>
       <c r="B365">
         <v>35</v>
